--- a/datasets/Brasileirao/match_history/teams/ceara.xlsx
+++ b/datasets/Brasileirao/match_history/teams/ceara.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P191"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022-04-09</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>44660</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>565</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5683601467575404</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022-04-17</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>44668</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>557</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5729252640535184</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>44681</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>544</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5804219151407424</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022-05-07</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>44688</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>537</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5844991221225824</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022-05-14</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>44695</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>530</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5886049696783552</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022-05-21</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>44702</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>523</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5927396589954125</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022-05-28</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>44709</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>516</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.596903392674358</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022-06-01</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>512</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5992957878455384</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022-06-04</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>44716</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>509</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6010963747389753</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022-06-08</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>44720</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>505</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6035055754270405</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022-06-12</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>44724</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>501</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6059244322171875</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022-06-15</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>44727</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>498</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6077449349024902</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022-06-18</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>44730</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>495</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.6095709072963093</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022-06-26</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>44738</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>487</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.6144670329446308</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022-07-02</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>44744</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>481</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6181649177029258</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>44751</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>474</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6225072525676867</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2022-07-16</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>44758</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>467</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.626880090412377</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2022-07-19</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>44761</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>464</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6287635544670984</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2022-07-24</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>44766</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>459</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6319152448994959</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2022-07-30</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>44772</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>453</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6357181336264143</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>44779</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>446</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.6401837720616471</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>44787</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>438</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6453257828572946</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>44794</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>431</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.6498589107747496</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>44800</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>425</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.6537697851298473</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>44808</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>417</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.6590209199441207</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2022-09-10</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>44814</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>411</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.6629869316007274</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2022-09-18</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>44822</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>403</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.6683120993235603</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2022-09-28</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>44832</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>393</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.6750287475861332</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>390</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6770568744981647</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2022-10-05</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44839</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>386</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.679770525680321</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2022-10-09</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44843</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>382</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6824950532053901</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44850</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>375</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.6872892787909722</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2022-10-23</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44857</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>368</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.6921171816887304</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022-10-26</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44860</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>365</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.6941966508779789</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022-10-31</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>360</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.697676326071031</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022-11-05</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44870</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>355</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7011734432085724</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022-11-09</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44874</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>351</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.7039837538556208</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022-11-13</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44878</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>347</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.7068053282577494</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2021-05-30</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>44346</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>879</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.4151979020538666</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2021-06-05</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>44352</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>873</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.4176965779979988</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2021-06-13</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>44360</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>865</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4210515526273212</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2021-06-17</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44364</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>861</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.4227391317459628</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2021-06-20</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44367</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>858</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.4240092533710473</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2021-06-24</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44371</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>854</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.4257086869858502</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>44374</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>851</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.4269877306530259</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2021-07-01</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>847</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.4286991020365772</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2021-07-04</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>44381</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>844</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.4299871304192398</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2021-07-07</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>44384</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>841</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4312790286889785</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2021-07-11</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>44388</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>837</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.4330075996408776</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2021-07-17</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>44394</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>831</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.4356134549872004</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2021-07-25</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>44402</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>823</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.4391123395044697</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2021-08-01</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>816</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.4421969092798986</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2021-08-08</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>44416</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>809</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.4453031467923587</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2021-08-15</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>44423</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>802</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.4484312042481095</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2021-08-22</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>44430</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>795</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.4515812349225922</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2021-08-29</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>44437</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>788</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.4547533931679402</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2021-09-12</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>44451</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>774</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.4611647152086584</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2021-09-18</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>44457</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>768</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.4639400210916467</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2021-09-25</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>44464</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>761</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4671989943381879</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2021-10-06</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>44475</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>750</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.4723665527410147</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2021-10-09</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>44478</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>747</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.4737857801759698</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2021-10-14</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>44483</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>742</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4761606412819894</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2021-10-17</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>44486</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>739</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.4775912680730521</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2021-10-20</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>44489</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>736</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.4790261931887511</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2021-10-23</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>44492</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>733</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.4804654295434223</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2021-10-27</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>44496</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>729</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4823911401151259</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2021-10-31</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>44500</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>725</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.4843245689553625</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2021-11-07</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>44507</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>718</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.4877267346257312</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2021-11-10</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>44510</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>715</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.4891921117963315</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021-11-14</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>44514</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>711</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4911527990036827</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021-11-17</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>44517</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>708</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4926284698001355</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021-11-20</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>44520</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>705</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4941085742561417</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2021-11-25</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>44525</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>700</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.4965853037914095</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2021-11-30</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>44530</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>695</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.4990744479851359</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2021-12-05</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>44535</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>690</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.5015760690660555</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2021-12-09</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>44539</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5378,12 +5690,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>686</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.5035863913063714</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2020-08-08</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>44051</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5442,12 +5758,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>1174</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.3091279531286805</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2020-08-12</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>44055</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5506,12 +5826,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>1170</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.310366941265485</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2020-08-16</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>44059</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5570,12 +5894,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>1166</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.311610895279971</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>44063</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5634,12 +5962,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>1162</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.3128598350754292</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2020-08-23</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>44066</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5698,12 +6030,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>1159</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.3137998238588391</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2020-08-30</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>44073</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5762,12 +6098,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>1152</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.3160041286918625</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2020-09-02</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>44076</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5826,12 +6166,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>1149</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.3169535645196029</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>44079</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5890,12 +6234,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>1146</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.3179058529315635</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2020-09-10</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>44084</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5954,12 +6302,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>1141</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.3194993626507087</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2020-09-13</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>44087</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6018,12 +6370,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>1138</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.3204592999246187</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2020-09-19</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>44093</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6082,12 +6438,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>1132</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.3223878355454255</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2020-09-27</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>44101</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6146,12 +6506,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>1124</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.324977282206064</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2020-10-03</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>44107</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6210,12 +6574,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>1118</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.3269330072071321</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2020-10-08</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>44112</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6274,12 +6642,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>1113</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.3285717657253846</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2020-10-11</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>44115</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6338,12 +6710,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>1110</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.3295589610751891</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2020-10-17</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>44121</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6402,12 +6778,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>1104</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.3315422587848797</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2020-10-24</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>44128</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6466,12 +6846,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>1097</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.3338711963680944</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2020-10-31</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>44135</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6530,12 +6914,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>1090</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.3362164937067333</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2020-11-08</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>44143</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6594,12 +6982,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>1082</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.3389170133321328</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2020-11-14</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>44149</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6658,12 +7050,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>1076</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.3409566281377016</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2020-11-22</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>44157</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6722,12 +7118,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>1068</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.3436952209281524</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2020-11-25</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>44160</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6786,12 +7186,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>1065</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.3447278547672202</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2020-11-30</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>44165</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6850,12 +7254,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>1060</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.3464558103300574</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2020-12-05</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>44170</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6914,12 +7322,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>1055</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.3481924273061976</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2020-12-12</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6978,12 +7390,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>1048</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.3506383249516929</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2020-12-20</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>44185</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -7042,12 +7458,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>1040</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.3534546819587802</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2020-12-27</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>44192</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7106,12 +7526,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>1033</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.3559375446134354</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2021-01-07</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>44203</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7170,12 +7594,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>1022</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.3598744710020595</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2021-01-10</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>44206</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7234,12 +7662,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>1019</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.3609557154708356</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2021-01-17</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>44213</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7298,12 +7730,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>1012</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.3634912695649568</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2021-01-21</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>44217</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7362,12 +7798,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>1008</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.3649481464544937</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2021-01-24</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>44220</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7426,12 +7866,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>1005</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.3660446348040153</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2021-01-31</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>44227</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7490,12 +7934,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>998</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.3686159363034188</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2021-02-03</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>44230</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7554,12 +8002,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>995</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.369723444544059</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2021-02-10</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>44237</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7618,12 +8070,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>988</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.3723205880531552</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2021-02-15</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>44242</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7682,12 +8138,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>983</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.3741868527671561</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2021-02-20</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>44247</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7746,12 +8206,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>978</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.3760624721719651</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2021-02-25</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>44252</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7810,12 +8274,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>973</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.3779474931581651</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>43583</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7874,12 +8342,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q116" t="n">
+        <v>1642</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.1935924699078839</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2019-05-01</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>43586</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7938,12 +8410,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q117" t="n">
+        <v>1639</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.194174119355542</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2019-05-04</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>43589</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -8002,12 +8478,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q118" t="n">
+        <v>1636</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.194757516371585</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>43596</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -8066,12 +8546,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q119" t="n">
+        <v>1629</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.1961256016984864</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2019-05-19</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>43604</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -8130,12 +8614,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q120" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.1977008993009057</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2019-05-27</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>43612</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -8194,12 +8682,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q121" t="n">
+        <v>1613</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.1992888498283624</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2019-06-02</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>43618</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -8258,12 +8750,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q122" t="n">
+        <v>1607</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.2004881773118026</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2019-06-08</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>43624</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -8322,12 +8818,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q123" t="n">
+        <v>1601</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.2016947223912788</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2019-06-13</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>43629</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8386,12 +8886,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q124" t="n">
+        <v>1596</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.2027057213944961</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2019-07-15</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>43661</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8450,12 +8954,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q125" t="n">
+        <v>1564</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.2092972057653195</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2019-07-20</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>43666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8514,12 +9022,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q126" t="n">
+        <v>1559</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.2103463123750325</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2019-07-27</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>43673</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8578,12 +9090,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q127" t="n">
+        <v>1552</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.2118239020921814</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2019-08-03</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>43680</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -8642,12 +9158,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q128" t="n">
+        <v>1545</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.2133118712229152</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2019-08-10</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>43687</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -8706,12 +9226,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q129" t="n">
+        <v>1538</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.2148102926780192</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2019-08-18</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>43695</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8770,12 +9294,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q130" t="n">
+        <v>1530</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.2165356673160071</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>43702</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8834,12 +9362,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q131" t="n">
+        <v>1523</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.2180567345113836</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>43708</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8898,12 +9430,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q132" t="n">
+        <v>1517</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.2193690078015048</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2019-09-07</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>43715</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8962,12 +9498,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q133" t="n">
+        <v>1510</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.2209099779593782</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2019-09-14</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>43722</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -9026,12 +9566,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q134" t="n">
+        <v>1503</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.2224617727503721</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2019-09-22</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>43730</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -9090,12 +9634,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q135" t="n">
+        <v>1495</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.2242486047305353</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2019-09-25</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>43733</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -9154,12 +9702,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q136" t="n">
+        <v>1492</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.2249223606733242</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2019-09-29</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>43737</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -9218,12 +9770,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q137" t="n">
+        <v>1488</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.2258238518964759</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2019-10-06</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>43744</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -9282,12 +9838,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q138" t="n">
+        <v>1481</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.227410164476343</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2019-10-09</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>43747</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -9346,12 +9906,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q139" t="n">
+        <v>1478</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.2280934193396259</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2019-10-13</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>43751</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -9410,12 +9974,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q140" t="n">
+        <v>1474</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.2290076201997705</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2019-10-17</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>43755</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -9474,12 +10042,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q141" t="n">
+        <v>1470</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.2299254851867238</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2019-10-21</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>43759</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -9538,12 +10110,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q142" t="n">
+        <v>1466</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.2308470289863452</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2019-10-26</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>43764</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9602,12 +10178,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q143" t="n">
+        <v>1461</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.23200415453447</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2019-10-30</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9666,12 +10246,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q144" t="n">
+        <v>1457</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.2329340296630319</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>43771</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -9730,12 +10314,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q145" t="n">
+        <v>1454</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.2336338810041442</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>43776</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -9794,12 +10382,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q146" t="n">
+        <v>1449</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.2348049757061403</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>43779</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9858,12 +10450,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q147" t="n">
+        <v>1446</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.2355104483130648</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2019-11-17</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>43786</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9922,12 +10518,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q148" t="n">
+        <v>1439</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.237164804944181</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2019-11-24</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>43793</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -9986,12 +10586,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q149" t="n">
+        <v>1432</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.2388307826981924</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2019-11-27</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>43796</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -10050,12 +10654,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q150" t="n">
+        <v>1429</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.2395483508603542</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2019-11-30</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>43799</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -10114,12 +10722,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q151" t="n">
+        <v>1426</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.2402680749592907</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>43803</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -10178,12 +10790,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q152" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.2412310719691519</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2019-12-08</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>43807</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -10242,12 +10858,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q153" t="n">
+        <v>1418</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.2421979286813109</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2018-04-14</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>43204</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -10302,12 +10922,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.1325228759206704</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -10362,12 +10986,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q155" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -10422,12 +11050,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q156" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -10482,12 +11114,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q157" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2018-05-14</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>43234</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -10542,12 +11178,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q158" t="n">
+        <v>1991</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.1365587983450142</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -10602,12 +11242,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q159" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -10662,12 +11306,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q160" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -10722,12 +11370,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q161" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -10782,12 +11434,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q162" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -10842,12 +11498,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q163" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -10902,12 +11562,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q164" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -10962,12 +11626,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q165" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -11022,12 +11690,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q166" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2018-07-23</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>43304</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -11082,12 +11754,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q167" t="n">
+        <v>1921</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.1464604284472725</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2018-07-28</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>43309</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -11142,12 +11818,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q168" t="n">
+        <v>1916</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0.1471945643999412</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -11202,12 +11882,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q169" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2018-08-08</t>
-        </is>
+      <c r="A170" s="2" t="n">
+        <v>43320</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -11262,12 +11946,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q170" t="n">
+        <v>1905</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0.1488226426221404</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2018-08-11</t>
-        </is>
+      <c r="A171" s="2" t="n">
+        <v>43323</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -11322,12 +12010,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q171" t="n">
+        <v>1902</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0.1492697809221031</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2018-08-20</t>
-        </is>
+      <c r="A172" s="2" t="n">
+        <v>43332</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -11382,12 +12074,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q172" t="n">
+        <v>1893</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0.1506192725536879</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2018-08-26</t>
-        </is>
+      <c r="A173" s="2" t="n">
+        <v>43338</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -11442,12 +12138,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q173" t="n">
+        <v>1887</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0.151525704766353</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2018-08-29</t>
-        </is>
+      <c r="A174" s="2" t="n">
+        <v>43341</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -11502,12 +12202,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q174" t="n">
+        <v>1884</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0.1519809644287009</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A175" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -11562,12 +12266,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q175" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A176" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -11622,12 +12330,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q176" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A177" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -11682,12 +12394,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q177" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2018-09-15</t>
-        </is>
+      <c r="A178" s="2" t="n">
+        <v>43358</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -11742,12 +12458,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q178" t="n">
+        <v>1867</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.1545867270511319</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A179" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11802,12 +12522,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q179" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A180" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -11862,12 +12586,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q180" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2018-10-15</t>
-        </is>
+      <c r="A181" s="2" t="n">
+        <v>43388</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -11922,12 +12650,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q181" t="n">
+        <v>1837</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0.1592945937788737</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2018-10-21</t>
-        </is>
+      <c r="A182" s="2" t="n">
+        <v>43394</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -11982,12 +12714,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q182" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0.1602532343874526</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2018-10-24</t>
-        </is>
+      <c r="A183" s="2" t="n">
+        <v>43397</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -12042,12 +12778,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q183" t="n">
+        <v>1828</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0.1607347159518504</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2018-10-29</t>
-        </is>
+      <c r="A184" s="2" t="n">
+        <v>43402</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -12102,12 +12842,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q184" t="n">
+        <v>1823</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0.161540402068389</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2018-11-05</t>
-        </is>
+      <c r="A185" s="2" t="n">
+        <v>43409</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -12162,12 +12906,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q185" t="n">
+        <v>1816</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0.1626751518736281</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A186" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -12222,12 +12970,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q186" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A187" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -12282,12 +13034,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q187" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2018-11-19</t>
-        </is>
+      <c r="A188" s="2" t="n">
+        <v>43423</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -12342,12 +13098,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q188" t="n">
+        <v>1802</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0.1649686208226314</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A189" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -12402,12 +13162,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q189" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A190" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -12462,12 +13226,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q190" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -12522,6 +13290,12 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q191" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
